--- a/similarities/split_global/harmonic_similarity_timestamps_30.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:10.133000', '0:02:21.453000')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.341609', '0:00:29.484104')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=130.133']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A'], ['B:7', 'E', 'A']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F'], ['G:7', 'C', 'F']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.172811', '0:00:46.428321'), ('0:01:05.956303', '0:01:15.755124')]</t>
+          <t>('0:00:00.220000', '0:00:03.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000'), ('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=31.172811', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=65.956303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'B:7', 'E:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'C#:7/G#', 'F#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.427000', '0:00:05.357000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.200000', '0:00:05.700000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=0.427']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=0.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:21.245000')]</t>
+          <t>('0:00:37.940000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:00:32.440000', '0:00:34.800000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:19.910000', '0:00:27.650000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:43.560000', '0:00:50.130000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=19.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=43.56</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:00:58.460000', '0:01:03.460000'), ('0:01:10.060000', '0:01:20.280000')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:01:03.460000', '0:01:05.780000'), ('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:38.060000', '0:01:45.600000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:01:41.500000', '0:01:48.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=101.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:11.964095', '0:00:14.541510')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:05.300000', '0:01:13.120000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.964095</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=65.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/3', 'D', 'A']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.260000', '0:01:13.300000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:34.975070', '0:00:47.386136')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=34.97507']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:01:05.260000', '0:01:11.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=65.26</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:37.633000', '0:00:41.753000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.155000', '0:00:20.379000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#'], ['A:7', 'D:maj', 'A:7']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:31.140000', '0:00:41.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:54.820000', '0:01:01.800000'), ('0:00:03.440000', '0:00:11.460000')]</t>
+          <t>('0:00:58.880000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=31.14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=3.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
